--- a/biology/Zoologie/Gesta_(lépidoptère)/Gesta_(lépidoptère).xlsx
+++ b/biology/Zoologie/Gesta_(lépidoptère)/Gesta_(lépidoptère).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gesta_(l%C3%A9pidopt%C3%A8re)</t>
+          <t>Gesta_(lépidoptère)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Gesta est un genre de lépidoptères (papillons) de la sous-famille des Pyrginae (famille des Hesperiidae).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gesta_(l%C3%A9pidopt%C3%A8re)</t>
+          <t>Gesta_(lépidoptère)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,14 +524,16 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (4 février 2024)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (4 février 2024) :
 Gesta austerus (Schaus, 1902) - Pérou
 Gesta gesta (Herrich-Schäffer, 1863) - Sud de l'Amérique du Sud, Cuba
 Gesta heteropterus (Plötz, 1884) - Brésil, Venezuela
 Gesta inga Evans, 1953 - Brésil
-Auxquelles BioLib                    (4 février 2024)[2] ajoute :
+Auxquelles BioLib                    (4 février 2024) ajoute :
 Gesta invisus (Butler &amp; H. Druce, 1872)</t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gesta_(l%C3%A9pidopt%C3%A8re)</t>
+          <t>Gesta_(lépidoptère)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Gesta Evans, 1953[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Gesta Evans, 1953.
 </t>
         </is>
       </c>
